--- a/artigos_SPringer/SelecaoFase2 Saulo.xlsx
+++ b/artigos_SPringer/SelecaoFase2 Saulo.xlsx
@@ -325,35 +325,7 @@
 biosphere and beyond</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(o modelo cientifico proposto não corresponde ao esperado para c.exatas, em especial c.computaçao)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">3((o modelo cientifico proposto não corresponde ao esperado para c.exatas, em especial c.computaçao))</t>
   </si>
   <si>
     <t xml:space="preserve">Experiences in integrated data and research object publishing</t>
@@ -447,8 +419,7 @@
 efficient bag-of-concepts densification</t>
   </si>
   <si>
-    <t xml:space="preserve">Ranking Dublin Core descriptor lists from user interactions: a case
-study with Dublin Core Terms using the Dendro platform</t>
+    <t xml:space="preserve">Enriching the Notion of Data Curation in E-Science: Data Managing and Information Infrastructuring in the Long Term Ecological Research (LTER) Network</t>
   </si>
   <si>
     <t xml:space="preserve">2(auto)</t>
@@ -536,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -637,12 +608,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -738,7 +703,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,14 +781,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="baseACM" displayName="baseACM" ref="A1:G45" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:G45">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ACEITO"/>
-        <filter val="ACEITO (não cientifico)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G45"/>
   <tableColumns count="7">
     <tableColumn id="1" name="author"/>
     <tableColumn id="2" name="title"/>
@@ -843,19 +801,19 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="81.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="8" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.57"/>
   </cols>
@@ -977,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -998,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -1035,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>26</v>
@@ -1134,7 +1092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -1152,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="10" t="s">
         <v>35</v>
@@ -1170,7 +1128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -1209,7 +1167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="52.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>39</v>
@@ -1248,7 +1206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="10" t="s">
         <v>42</v>
@@ -1266,7 +1224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="10" t="s">
         <v>43</v>
@@ -1284,7 +1242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -1302,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="39.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="10" t="s">
         <v>45</v>
@@ -1320,7 +1278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="39.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="10" t="s">
         <v>46</v>
@@ -1338,7 +1296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="10" t="s">
         <v>47</v>
@@ -1356,7 +1314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="10" t="s">
         <v>48</v>
@@ -1374,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>49</v>
@@ -1392,7 +1350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
         <v>50</v>
@@ -1410,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>51</v>
@@ -1464,7 +1422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="10" t="s">
         <v>54</v>
@@ -1482,7 +1440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="10" t="s">
         <v>55</v>
@@ -1527,7 +1485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="10" t="s">
         <v>59</v>
@@ -1545,7 +1503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="10" t="s">
         <v>60</v>
@@ -1581,7 +1539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
         <v>62</v>
@@ -1596,7 +1554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="10" t="s">
         <v>63</v>
@@ -1614,7 +1572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="10" t="s">
         <v>64</v>
@@ -1632,7 +1590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="26.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="10" t="s">
         <v>65</v>
@@ -1686,7 +1644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="39.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="10" t="s">
         <v>68</v>
@@ -1743,7 +1701,7 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
